--- a/myapp/files/9_MethodComparePercent/Scenario 339.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 339.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2052</v>
+        <v>7720</v>
       </c>
       <c r="F2" t="n">
-        <v>3.48132941994809</v>
+        <v>1.59434626640039</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77777777777778</v>
+        <v>1.35746606334842</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1578</v>
+        <v>11945</v>
       </c>
       <c r="F3" t="n">
-        <v>2.67716268259166</v>
+        <v>2.46689976064154</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>5.55555555555556</v>
+        <v>3.16742081447964</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2658</v>
+        <v>19828</v>
       </c>
       <c r="F4" t="n">
-        <v>4.5094413246696</v>
+        <v>4.09490903758898</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>5.55555555555556</v>
+        <v>3.16742081447964</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3156</v>
+        <v>18796</v>
       </c>
       <c r="F5" t="n">
-        <v>5.35432536518331</v>
+        <v>3.88177881130334</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>11.1111111111111</v>
+        <v>4.97737556561086</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>561</v>
+        <v>12337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.951766961301597</v>
+        <v>2.54785620318415</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>5.55555555555556</v>
+        <v>4.07239819004525</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2884</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.595608112992063</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.35746606334842</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>4536</v>
+        <v>22971</v>
       </c>
       <c r="F8" t="n">
-        <v>7.69557029672735</v>
+        <v>4.74400622868956</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>2.77777777777778</v>
+        <v>4.52488687782805</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4176</v>
+        <v>39482</v>
       </c>
       <c r="F9" t="n">
-        <v>7.08481074936803</v>
+        <v>8.15388332772283</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.57142857142857</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>2.77777777777778</v>
+        <v>8.1447963800905</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4261</v>
+        <v>28931</v>
       </c>
       <c r="F10" t="n">
-        <v>7.22901786471676</v>
+        <v>5.9748745897966</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>5.35714285714286</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>8.33333333333333</v>
+        <v>8.1447963800905</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1876</v>
+        <v>21157</v>
       </c>
       <c r="F11" t="n">
-        <v>3.18273586346131</v>
+        <v>4.36937616039289</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>3.57142857142857</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>5.55555555555556</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>4529</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.93533604151909</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.904977375565611</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1680</v>
+        <v>20172</v>
       </c>
       <c r="F13" t="n">
-        <v>2.85021122101013</v>
+        <v>4.16595244635087</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>3.57142857142857</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.77777777777778</v>
+        <v>3.61990950226244</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5622</v>
+        <v>59027</v>
       </c>
       <c r="F14" t="n">
-        <v>9.53802826459461</v>
+        <v>12.1903467703129</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1049,10 +1049,10 @@
         <v>17.8571428571429</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>5.55555555555556</v>
+        <v>9.95475113122172</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4983</v>
+        <v>47690</v>
       </c>
       <c r="F15" t="n">
-        <v>8.45393006803183</v>
+        <v>9.84901210422729</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,10 +1087,10 @@
         <v>23.2142857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>8.33333333333333</v>
+        <v>8.1447963800905</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>4748</v>
+        <v>30115</v>
       </c>
       <c r="F16" t="n">
-        <v>8.05523980795005</v>
+        <v>6.21939608972122</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.57142857142857</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.55555555555556</v>
+        <v>5.42986425339367</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4212</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.869868714258866</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.452488687782805</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1015</v>
+        <v>9161</v>
       </c>
       <c r="F18" t="n">
-        <v>1.72200261269362</v>
+        <v>1.89194380135932</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.77777777777778</v>
+        <v>1.80995475113122</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1435</v>
+        <v>23670</v>
       </c>
       <c r="F19" t="n">
-        <v>2.43455541794615</v>
+        <v>4.88836478312141</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>16.0714285714286</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77777777777778</v>
+        <v>5.42986425339367</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>252</v>
+        <v>23188</v>
       </c>
       <c r="F20" t="n">
-        <v>0.427531683151519</v>
+        <v>4.78882140223993</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1277,10 +1277,10 @@
         <v>10.7142857142857</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>2.77777777777778</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1778</v>
+        <v>24926</v>
       </c>
       <c r="F21" t="n">
-        <v>3.01647354223572</v>
+        <v>5.14775583371712</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>5.55555555555556</v>
+        <v>5.42986425339367</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2368</v>
+        <v>5748</v>
       </c>
       <c r="F22" t="n">
-        <v>4.01744057818571</v>
+        <v>1.18708579524216</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.77777777777778</v>
+        <v>0.904977375565611</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2592</v>
+        <v>7857</v>
       </c>
       <c r="F23" t="n">
-        <v>4.39746874098706</v>
+        <v>1.62263971698289</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.77777777777778</v>
+        <v>0.904977375565611</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2592</v>
+        <v>8632</v>
       </c>
       <c r="F24" t="n">
-        <v>4.39746874098706</v>
+        <v>1.78269390823422</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.77777777777778</v>
+        <v>1.35746606334842</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2592</v>
+        <v>14004</v>
       </c>
       <c r="F25" t="n">
-        <v>4.39746874098706</v>
+        <v>2.89212760552734</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.77777777777778</v>
+        <v>2.26244343891403</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2432</v>
+        <v>15229</v>
       </c>
       <c r="F26" t="n">
-        <v>4.12602005327181</v>
+        <v>3.145116488473</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>3.57142857142857</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.77777777777778</v>
+        <v>2.71493212669683</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
